--- a/data/tests/cluster_33.xlsx
+++ b/data/tests/cluster_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,20 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rv2402</t>
+          <t>Rv3608c</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rv2402</t>
+          <t>folP1 Rv3608c MTCY07H7B.14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the hydrolysis of alpha,alpha-trehalose into two molecules of D-glucose. {ECO:0000269|PubMed:17319935}.</t>
+          <t>FUNCTION: Catalyzes the condensation of para-aminobenzoate (pABA) with 6-hydroxymethyl-7,8-dihydropterin diphosphate (DHPt-PP) to form 7,8-dihydropteroate (H2Pte), the immediate precursor of folate derivatives. {ECO:0000269|PubMed:10542185, ECO:0000269|PubMed:23118010, ECO:0000269|PubMed:23779105}.; FUNCTION: Is involved in the bioactivation of the antituberculous drug para-aminosalicylic acid (PAS). PAS is a close structural analog of pABA and acts as an alternative substrate for DHPS, leading to hydroxy-dihydropteroate (H2PtePAS). Metabolomic studies show that PAS, despite its in vitro activity as a competitive inhibitor of DHPS, does not inhibit growth of M.tuberculosis by inhibiting DHPS. PAS exerts its antimycobacterial activity through its effects on M.tuberculosis folate metabolism downstream of DHPS. PAS poisons folate-dependent pathways not only by serving as a replacement substrate for DHPS but also by the products of that reaction serving as replacement substrates and/or inhibitors of subsequent enzymes. {ECO:0000269|PubMed:23118010, ECO:0000269|PubMed:23779105}.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -574,20 +574,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rv2130c</t>
+          <t>Rv3206c</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mshC cysS2 Rv2130c MTCY261.29c</t>
+          <t>moeZ moeB1 Rv3206c</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the ATP-dependent condensation of GlcN-Ins and L-cysteine to form L-Cys-GlcN-Ins.</t>
+          <t>FUNCTION: Catalyzes the conversion of the sulfur carrier protein CysO to CysO-thiocarboxylate. The reaction is thought to proceed in two steps: first, ATP-dependent activation of CysO as acyl-adenylate (CysO-COOAMP), followed by sulfur transfer to give CysO-thiocarboxylate (CysO-COSH) (Probable). The sulfur source is unknown. {ECO:0000269|PubMed:16104727, ECO:0000305}.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -597,7 +597,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rv3608c</t>
+          <t>Rv3859c</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -605,14 +605,10 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>folP1 Rv3608c MTCY07H7B.14</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FUNCTION: Catalyzes the condensation of para-aminobenzoate (pABA) with 6-hydroxymethyl-7,8-dihydropterin diphosphate (DHPt-PP) to form 7,8-dihydropteroate (H2Pte), the immediate precursor of folate derivatives. {ECO:0000269|PubMed:10542185, ECO:0000269|PubMed:23118010, ECO:0000269|PubMed:23779105}.; FUNCTION: Is involved in the bioactivation of the antituberculous drug para-aminosalicylic acid (PAS). PAS is a close structural analog of pABA and acts as an alternative substrate for DHPS, leading to hydroxy-dihydropteroate (H2PtePAS). Metabolomic studies show that PAS, despite its in vitro activity as a competitive inhibitor of DHPS, does not inhibit growth of M.tuberculosis by inhibiting DHPS. PAS exerts its antimycobacterial activity through its effects on M.tuberculosis folate metabolism downstream of DHPS. PAS poisons folate-dependent pathways not only by serving as a replacement substrate for DHPS but also by the products of that reaction serving as replacement substrates and/or inhibitors of subsequent enzymes. {ECO:0000269|PubMed:23118010, ECO:0000269|PubMed:23779105}.</t>
-        </is>
-      </c>
+          <t>gltB Rv3859c</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>33</v>
       </c>
@@ -620,7 +616,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rv0946c</t>
+          <t>Rv2402</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -628,10 +624,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pgi Rv0946c MTCY10D7.28</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Rv2402</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the hydrolysis of alpha,alpha-trehalose into two molecules of D-glucose. {ECO:0000269|PubMed:17319935}.</t>
+        </is>
+      </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
@@ -639,18 +639,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rv3859c</t>
+          <t>Rv3265c</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gltB Rv3859c</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>wbbL wbbL1 Rv3265c</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in the biosynthesis of the mycolylarabinogalactan-peptidoglycan (mAGP) complex, an essential component of the mycobacterial cell wall. Catalyzes the transfer of the rhamnosyl moiety from dTDP-rhamnosyl (dTDP-Rha) onto the decaprenyl-pyrophosphoryl-GlcNAc (C50-PP-GlcNAc), yielding rhamnosyl-decaprenyl-pyrophosphoryl-GlcNAc (Rha-C50-PP-GlcNAc). {ECO:0000269|PubMed:15294902, ECO:0000269|PubMed:19047740}.</t>
+        </is>
+      </c>
       <c r="E10" t="n">
         <v>33</v>
       </c>
@@ -658,7 +662,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rv3793</t>
+          <t>Rv2173</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -666,12 +670,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>embC Rv3793 MTCY13D12.27</t>
+          <t>idsA2 Rv2173</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FUNCTION: Arabinosyl transferase responsible for the polymerization of arabinose into the arabinan of arabinogalactan.</t>
+          <t>FUNCTION: Catalyzes the sequential condensations of isopentenyl pyrophosphate (IPP) with dimethylallyl diphosphate (DMAPP) to yield geranyl diphosphate (GPP) and with GPP to yield (2E,6E)-farnesyl diphosphate (E,E-FPP). {ECO:0000269|PubMed:32495977}.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -704,7 +708,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rv2173</t>
+          <t>Rv0946c</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -712,14 +716,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>idsA2 Rv2173</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FUNCTION: Catalyzes the sequential condensations of isopentenyl pyrophosphate (IPP) with dimethylallyl diphosphate (DMAPP) to yield geranyl diphosphate (GPP) and with GPP to yield (2E,6E)-farnesyl diphosphate (E,E-FPP). {ECO:0000269|PubMed:32495977}.</t>
-        </is>
-      </c>
+          <t>pgi Rv0946c MTCY10D7.28</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>33</v>
       </c>
@@ -727,20 +727,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rv3206c</t>
+          <t>Rv3793</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>moeZ moeB1 Rv3206c</t>
+          <t>embC Rv3793 MTCY13D12.27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the conversion of the sulfur carrier protein CysO to CysO-thiocarboxylate. The reaction is thought to proceed in two steps: first, ATP-dependent activation of CysO as acyl-adenylate (CysO-COOAMP), followed by sulfur transfer to give CysO-thiocarboxylate (CysO-COSH) (Probable). The sulfur source is unknown. {ECO:0000269|PubMed:16104727, ECO:0000305}.</t>
+          <t>FUNCTION: Arabinosyl transferase responsible for the polymerization of arabinose into the arabinan of arabinogalactan.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -750,7 +750,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rv3265c</t>
+          <t>Rv2130c</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -758,15 +758,724 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>wbbL wbbL1 Rv3265c</t>
+          <t>mshC cysS2 Rv2130c MTCY261.29c</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the biosynthesis of the mycolylarabinogalactan-peptidoglycan (mAGP) complex, an essential component of the mycobacterial cell wall. Catalyzes the transfer of the rhamnosyl moiety from dTDP-rhamnosyl (dTDP-Rha) onto the decaprenyl-pyrophosphoryl-GlcNAc (C50-PP-GlcNAc), yielding rhamnosyl-decaprenyl-pyrophosphoryl-GlcNAc (Rha-C50-PP-GlcNAc). {ECO:0000269|PubMed:15294902, ECO:0000269|PubMed:19047740}.</t>
+          <t>FUNCTION: Catalyzes the ATP-dependent condensation of GlcN-Ins and L-cysteine to form L-Cys-GlcN-Ins.</t>
         </is>
       </c>
       <c r="E15" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv2136c</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>uppP bacA upk Rv2136c MTCY270.32</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the dephosphorylation of undecaprenyl diphosphate (UPP). Confers resistance to bacitracin. {ECO:0000255|HAMAP-Rule:MF_01006}.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv3379c</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>dxs2 Rv3379c</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv2839c</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>infB Rv2839c MTCY16B7.03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FUNCTION: One of the essential components for the initiation of protein synthesis. Protects formylmethionyl-tRNA from spontaneous hydrolysis and promotes its binding to the 30S ribosomal subunits. Also involved in the hydrolysis of GTP during the formation of the 70S ribosomal complex (By similarity). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv2611c</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rv2611c</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the acylation to the position 6 of the alpha-1,2-linked mannose residue of the phosphatidyl-myo-inositol dimannoside (PIM2) or monomannoside (PIM1). {ECO:0000269|PubMed:12851411}.</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rv1270c</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lprA Rv1270c MTCY50.12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FUNCTION: Constitutes a host TLR2 agonist (toll-like receptor), shown experimentally for human and mouse (PubMed:19362712). In host cells full-length (acylated) protein acts as a TLR2 agonist, inducing human and murine macrophages to produce cytokines, inducing murine dendritic cell maturation and cytokine production and inhibiting antibody processing in murine macrophages (PubMed:16785538). Binds diacylated phosphatidyl-myo-inositol mannosides (PIMs) (PubMed:20694006). Does not induce murine macrophage apoptosis or necrosis (PubMed:16785538). Non-acylated protein does not act as a TLR2 agonist (PubMed:20694006). Requires only host TLR2 as receptors to elicit host response in mouse, although TLR6 may play a redundant role, also requires CD14 and CD16 as accessory receptors (PubMed:19362712). {ECO:0000269|PubMed:16785538, ECO:0000269|PubMed:19362712, ECO:0000269|PubMed:20694006}.</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rv2971</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rv2971</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rv1621c</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cydD Rv1621c</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rv0051</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rv0051</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rv0913c</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rv0913c</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rv2785c</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>rpsO Rv2785c MTV002.50c</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FUNCTION: One of the primary rRNA binding proteins, it binds directly to 16S rRNA where it helps nucleate assembly of the platform of the 30S subunit by binding and bridging several RNA helices of the 16S rRNA. {ECO:0000255|HAMAP-Rule:MF_01343}.; FUNCTION: Forms an intersubunit bridge (bridge B4) with the 23S rRNA of the 50S subunit in the ribosome. {ECO:0000255|HAMAP-Rule:MF_01343}.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rv2994</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rv2994</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rv2907c</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>rimM Rv2907c MTCY274.38c</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FUNCTION: An accessory protein needed during the final step in the assembly of 30S ribosomal subunit, possibly for assembly of the head region. Probably interacts with S19. Essential for efficient processing of 16S rRNA. May be needed both before and after RbfA during the maturation of 16S rRNA. It has affinity for free ribosomal 30S subunits but not for 70S ribosomes. {ECO:0000255|HAMAP-Rule:MF_00014}.</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rv0053</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>rpsF Rv0053 MTCY21D4.16</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FUNCTION: Binds together with S18 to 16S ribosomal RNA. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rv1711</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rv1711 MTCI125.33</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rv3052c</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nrdI Rv3052c MTCY22D7.30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FUNCTION: Probably involved in ribonucleotide reductase function. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rv1385</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>pyrF uraA Rv1385 MTCY21B4.02</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rv1540</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rv1540 MTCY48.25c</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rv1070c</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>echA8 Rv1070c MTV017.23c</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FUNCTION: Could possibly oxidize fatty acids using specific components. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rv2207</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>cobT Rv2207 MTCY190.18</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the synthesis of alpha-ribazole-5'-phosphate from nicotinate mononucleotide (NAMN) and 5,6-dimethylbenzimidazole (DMB). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rv0715</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>rplX Rv0715 MTCY210.34</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FUNCTION: One of two assembly initiator proteins, it binds directly to the 5'-end of the 23S rRNA, where it nucleates assembly of the 50S subunit. {ECO:0000255|HAMAP-Rule:MF_01326}.; FUNCTION: One of the proteins that surrounds the polypeptide exit tunnel on the outside of the subunit. {ECO:0000255|HAMAP-Rule:MF_01326}.</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rv0709</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>rpmC Rv0709 MTCY210.28</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rv2909c</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>rpsP Rv2909c MTCY274.41c</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rv0063</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rv0063</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rv3463</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rv3463</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rv2989</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rv2989</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rv2135c</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rv2135c</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rv2375</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rv2375</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rv3212</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rv3212</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rv1071c</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>echA9 Rv1071c</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rv1209</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rv1209</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rv3434c</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Rv3434c</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rv3670</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ephE Rv3670</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rv2507</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rv2507</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rv3035</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rv3035 RVBD_3035 P425_03163</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rv3258c</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rv3258c</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
         <v>33</v>
       </c>
     </row>
